--- a/data/aula11.xlsx
+++ b/data/aula11.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cigarrinha" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
+    <sheet name="Transformacoes" sheetId="2" r:id="rId2"/>
+    <sheet name="Crescimento" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="35">
   <si>
     <t>C9</t>
   </si>
@@ -125,6 +126,12 @@
   <si>
     <t>acaro</t>
   </si>
+  <si>
+    <t>TEMPO</t>
+  </si>
+  <si>
+    <t>RESP</t>
+  </si>
 </sst>
 </file>
 
@@ -165,12 +172,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4066,7 +4076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4383,4 +4393,187 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/data/aula11.xlsx
+++ b/data/aula11.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\delineamentos22\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\delineamentos22\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Cigarrinha" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="33">
   <si>
     <t>C9</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>CTC2</t>
-  </si>
-  <si>
-    <t>.     23</t>
   </si>
   <si>
     <t>CTC20</t>
@@ -59,9 +56,6 @@
   </si>
   <si>
     <t>R5453</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t>R5536</t>
@@ -463,30 +457,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -842,8 +836,9 @@
       <c r="D19" s="1">
         <v>5</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>4</v>
+      <c r="E19" s="1"/>
+      <c r="F19">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -871,7 +866,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
@@ -891,7 +886,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
@@ -911,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>1</v>
@@ -931,7 +926,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
@@ -951,7 +946,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>1</v>
@@ -971,7 +966,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
@@ -991,7 +986,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>1</v>
@@ -1011,7 +1006,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>2</v>
@@ -1031,7 +1026,7 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>1</v>
@@ -1051,7 +1046,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>2</v>
@@ -1071,7 +1066,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>1</v>
@@ -1091,7 +1086,7 @@
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>2</v>
@@ -1111,7 +1106,7 @@
         <v>7</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>1</v>
@@ -1131,7 +1126,7 @@
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
@@ -1151,7 +1146,7 @@
         <v>7</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>1</v>
@@ -1171,7 +1166,7 @@
         <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>2</v>
@@ -1191,7 +1186,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>1</v>
@@ -1211,7 +1206,7 @@
         <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>2</v>
@@ -1231,7 +1226,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>1</v>
@@ -1251,7 +1246,7 @@
         <v>8</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
@@ -1271,7 +1266,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>1</v>
@@ -1291,7 +1286,7 @@
         <v>10</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>2</v>
@@ -1311,7 +1306,7 @@
         <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>1</v>
@@ -1331,7 +1326,7 @@
         <v>10</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>2</v>
@@ -1351,7 +1346,7 @@
         <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>1</v>
@@ -1371,7 +1366,7 @@
         <v>10</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>2</v>
@@ -1391,7 +1386,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>1</v>
@@ -1411,7 +1406,7 @@
         <v>10</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>2</v>
@@ -1431,7 +1426,7 @@
         <v>9</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>1</v>
@@ -1451,7 +1446,7 @@
         <v>10</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>2</v>
@@ -1471,7 +1466,7 @@
         <v>11</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>1</v>
@@ -1491,7 +1486,7 @@
         <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>2</v>
@@ -1511,7 +1506,7 @@
         <v>11</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>1</v>
@@ -1531,7 +1526,7 @@
         <v>12</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>2</v>
@@ -1551,7 +1546,7 @@
         <v>11</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>1</v>
@@ -1571,7 +1566,7 @@
         <v>12</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>2</v>
@@ -1591,7 +1586,7 @@
         <v>11</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>1</v>
@@ -1611,7 +1606,7 @@
         <v>12</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>2</v>
@@ -1631,7 +1626,7 @@
         <v>11</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>1</v>
@@ -1651,7 +1646,7 @@
         <v>12</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>2</v>
@@ -1671,7 +1666,7 @@
         <v>13</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>1</v>
@@ -1691,7 +1686,7 @@
         <v>14</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>2</v>
@@ -1711,7 +1706,7 @@
         <v>13</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>1</v>
@@ -1731,7 +1726,7 @@
         <v>14</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>2</v>
@@ -1751,7 +1746,7 @@
         <v>13</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>1</v>
@@ -1771,7 +1766,7 @@
         <v>14</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>2</v>
@@ -1791,7 +1786,7 @@
         <v>13</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>1</v>
@@ -1811,7 +1806,7 @@
         <v>14</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>2</v>
@@ -1831,7 +1826,7 @@
         <v>13</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>1</v>
@@ -1851,7 +1846,7 @@
         <v>14</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>2</v>
@@ -1871,7 +1866,7 @@
         <v>15</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>1</v>
@@ -1891,7 +1886,7 @@
         <v>16</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>2</v>
@@ -1911,7 +1906,7 @@
         <v>15</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>1</v>
@@ -1931,7 +1926,7 @@
         <v>16</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>2</v>
@@ -1951,7 +1946,7 @@
         <v>15</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>1</v>
@@ -1971,7 +1966,7 @@
         <v>16</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>2</v>
@@ -1991,7 +1986,7 @@
         <v>15</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>1</v>
@@ -1999,9 +1994,7 @@
       <c r="D77" s="1">
         <v>4</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E77" s="1"/>
       <c r="F77" s="1">
         <v>13.8</v>
       </c>
@@ -2011,7 +2004,7 @@
         <v>16</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>2</v>
@@ -2031,7 +2024,7 @@
         <v>15</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>1</v>
@@ -2039,9 +2032,7 @@
       <c r="D79" s="1">
         <v>5</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E79" s="1"/>
       <c r="F79" s="1">
         <v>8.3000000000000007</v>
       </c>
@@ -2051,7 +2042,7 @@
         <v>16</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>2</v>
@@ -2071,7 +2062,7 @@
         <v>17</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>1</v>
@@ -2079,9 +2070,7 @@
       <c r="D81" s="1">
         <v>1</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E81" s="1"/>
       <c r="F81" s="1">
         <v>31.8</v>
       </c>
@@ -2091,7 +2080,7 @@
         <v>18</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>2</v>
@@ -2111,7 +2100,7 @@
         <v>17</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>1</v>
@@ -2119,9 +2108,7 @@
       <c r="D83" s="1">
         <v>2</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E83" s="1"/>
       <c r="F83" s="1">
         <v>9.5</v>
       </c>
@@ -2131,7 +2118,7 @@
         <v>18</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>2</v>
@@ -2151,7 +2138,7 @@
         <v>17</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>1</v>
@@ -2159,9 +2146,7 @@
       <c r="D85" s="1">
         <v>3</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E85" s="1"/>
       <c r="F85" s="1">
         <v>17.7</v>
       </c>
@@ -2171,7 +2156,7 @@
         <v>18</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>2</v>
@@ -2191,7 +2176,7 @@
         <v>17</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>1</v>
@@ -2199,9 +2184,7 @@
       <c r="D87" s="1">
         <v>4</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E87" s="1"/>
       <c r="F87" s="1">
         <v>22.8</v>
       </c>
@@ -2211,7 +2194,7 @@
         <v>18</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>2</v>
@@ -2231,7 +2214,7 @@
         <v>17</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>1</v>
@@ -2239,9 +2222,7 @@
       <c r="D89" s="1">
         <v>5</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E89" s="1"/>
       <c r="F89" s="1">
         <v>19.5</v>
       </c>
@@ -2251,7 +2232,7 @@
         <v>18</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>2</v>
@@ -2271,7 +2252,7 @@
         <v>19</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>1</v>
@@ -2291,7 +2272,7 @@
         <v>20</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>2</v>
@@ -2311,7 +2292,7 @@
         <v>19</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>1</v>
@@ -2331,7 +2312,7 @@
         <v>20</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>2</v>
@@ -2351,7 +2332,7 @@
         <v>19</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>1</v>
@@ -2371,7 +2352,7 @@
         <v>20</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>2</v>
@@ -2391,7 +2372,7 @@
         <v>19</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>1</v>
@@ -2411,7 +2392,7 @@
         <v>20</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>2</v>
@@ -2431,7 +2412,7 @@
         <v>19</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>1</v>
@@ -2451,7 +2432,7 @@
         <v>20</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>2</v>
@@ -2471,7 +2452,7 @@
         <v>21</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>1</v>
@@ -2491,7 +2472,7 @@
         <v>22</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>2</v>
@@ -2511,7 +2492,7 @@
         <v>21</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>1</v>
@@ -2519,9 +2500,7 @@
       <c r="D103" s="1">
         <v>2</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E103" s="1"/>
       <c r="F103" s="1">
         <v>56.4</v>
       </c>
@@ -2531,7 +2510,7 @@
         <v>22</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>2</v>
@@ -2551,7 +2530,7 @@
         <v>21</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>1</v>
@@ -2571,7 +2550,7 @@
         <v>22</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>2</v>
@@ -2591,7 +2570,7 @@
         <v>21</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>1</v>
@@ -2611,7 +2590,7 @@
         <v>22</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>2</v>
@@ -2631,7 +2610,7 @@
         <v>21</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>1</v>
@@ -2651,7 +2630,7 @@
         <v>22</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>2</v>
@@ -2671,7 +2650,7 @@
         <v>23</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>1</v>
@@ -2691,7 +2670,7 @@
         <v>24</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>2</v>
@@ -2711,7 +2690,7 @@
         <v>23</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>1</v>
@@ -2728,10 +2707,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>2</v>
@@ -2751,7 +2730,7 @@
         <v>23</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>1</v>
@@ -2759,9 +2738,7 @@
       <c r="D115" s="1">
         <v>3</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E115" s="1"/>
       <c r="F115" s="1">
         <v>8.6999999999999993</v>
       </c>
@@ -2771,7 +2748,7 @@
         <v>24</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>2</v>
@@ -2791,7 +2768,7 @@
         <v>23</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>1</v>
@@ -2811,7 +2788,7 @@
         <v>24</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>2</v>
@@ -2831,7 +2808,7 @@
         <v>23</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>1</v>
@@ -2839,9 +2816,7 @@
       <c r="D119" s="1">
         <v>5</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E119" s="1"/>
       <c r="F119" s="1">
         <v>10.199999999999999</v>
       </c>
@@ -2851,7 +2826,7 @@
         <v>24</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>2</v>
@@ -2871,7 +2846,7 @@
         <v>25</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>1</v>
@@ -2891,7 +2866,7 @@
         <v>26</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>2</v>
@@ -2911,7 +2886,7 @@
         <v>25</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>1</v>
@@ -2931,7 +2906,7 @@
         <v>26</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>2</v>
@@ -2951,7 +2926,7 @@
         <v>25</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>1</v>
@@ -2971,7 +2946,7 @@
         <v>26</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>2</v>
@@ -2991,7 +2966,7 @@
         <v>25</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>1</v>
@@ -2999,9 +2974,7 @@
       <c r="D127" s="1">
         <v>5</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E127" s="1"/>
       <c r="F127" s="1">
         <v>39.9</v>
       </c>
@@ -3011,7 +2984,7 @@
         <v>26</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>2</v>
@@ -3031,7 +3004,7 @@
         <v>25</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>1</v>
@@ -3051,7 +3024,7 @@
         <v>26</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>2</v>
@@ -3071,7 +3044,7 @@
         <v>27</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>1</v>
@@ -3091,7 +3064,7 @@
         <v>28</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>2</v>
@@ -3111,7 +3084,7 @@
         <v>27</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>1</v>
@@ -3131,7 +3104,7 @@
         <v>28</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>2</v>
@@ -3151,7 +3124,7 @@
         <v>27</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>1</v>
@@ -3171,7 +3144,7 @@
         <v>28</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>2</v>
@@ -3191,7 +3164,7 @@
         <v>27</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>1</v>
@@ -3211,7 +3184,7 @@
         <v>28</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>2</v>
@@ -3231,7 +3204,7 @@
         <v>27</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>1</v>
@@ -3251,7 +3224,7 @@
         <v>28</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>2</v>
@@ -3271,7 +3244,7 @@
         <v>29</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>1</v>
@@ -3291,7 +3264,7 @@
         <v>30</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>2</v>
@@ -3311,7 +3284,7 @@
         <v>29</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>1</v>
@@ -3331,7 +3304,7 @@
         <v>30</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>2</v>
@@ -3351,7 +3324,7 @@
         <v>29</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>1</v>
@@ -3371,7 +3344,7 @@
         <v>30</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>2</v>
@@ -3391,7 +3364,7 @@
         <v>29</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>1</v>
@@ -3411,7 +3384,7 @@
         <v>30</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>2</v>
@@ -3431,7 +3404,7 @@
         <v>29</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>1</v>
@@ -3451,7 +3424,7 @@
         <v>30</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>2</v>
@@ -3471,7 +3444,7 @@
         <v>31</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>1</v>
@@ -3491,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>2</v>
@@ -3511,7 +3484,7 @@
         <v>31</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>1</v>
@@ -3531,7 +3504,7 @@
         <v>32</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>2</v>
@@ -3551,7 +3524,7 @@
         <v>31</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>1</v>
@@ -3571,7 +3544,7 @@
         <v>32</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>2</v>
@@ -3591,7 +3564,7 @@
         <v>31</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>1</v>
@@ -3611,7 +3584,7 @@
         <v>32</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>2</v>
@@ -3631,7 +3604,7 @@
         <v>31</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>1</v>
@@ -3651,7 +3624,7 @@
         <v>32</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>2</v>
@@ -3671,7 +3644,7 @@
         <v>33</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>1</v>
@@ -3691,7 +3664,7 @@
         <v>34</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>2</v>
@@ -3711,7 +3684,7 @@
         <v>33</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>1</v>
@@ -3731,7 +3704,7 @@
         <v>34</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>2</v>
@@ -3751,7 +3724,7 @@
         <v>33</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>1</v>
@@ -3771,7 +3744,7 @@
         <v>34</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>2</v>
@@ -3791,7 +3764,7 @@
         <v>33</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>1</v>
@@ -3811,7 +3784,7 @@
         <v>34</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>2</v>
@@ -3831,7 +3804,7 @@
         <v>33</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>1</v>
@@ -3851,7 +3824,7 @@
         <v>34</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>2</v>
@@ -3871,7 +3844,7 @@
         <v>35</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>1</v>
@@ -3891,7 +3864,7 @@
         <v>36</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>2</v>
@@ -3911,7 +3884,7 @@
         <v>35</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>1</v>
@@ -3931,7 +3904,7 @@
         <v>36</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>2</v>
@@ -3951,7 +3924,7 @@
         <v>35</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>1</v>
@@ -3971,7 +3944,7 @@
         <v>36</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>2</v>
@@ -3991,7 +3964,7 @@
         <v>35</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>1</v>
@@ -4011,7 +3984,7 @@
         <v>36</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>2</v>
@@ -4031,7 +4004,7 @@
         <v>35</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>1</v>
@@ -4051,7 +4024,7 @@
         <v>36</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>2</v>
@@ -4084,16 +4057,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4399,7 +4372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B21"/>
     </sheetView>
   </sheetViews>
@@ -4407,10 +4380,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
